--- a/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,59</t>
+          <t>-2,61; 3,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 9,13</t>
+          <t>-0,14; 8,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,96</t>
+          <t>-2,29; 1,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 237,69</t>
+          <t>-64,13; 241,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 236,82</t>
+          <t>-6,37; 230,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-84,53; 179,51</t>
+          <t>-82,76; 218,55</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,88</t>
+          <t>-1,27; 4,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 10,12</t>
+          <t>3,1; 10,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,67</t>
+          <t>-0,72; 3,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,23</t>
+          <t>0,62; 6,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 152,91</t>
+          <t>-20,42; 149,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,16; 338,34</t>
+          <t>44,24; 325,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 276,09</t>
+          <t>-30,57; 258,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 230,94</t>
+          <t>3,93; 220,8</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,06</t>
+          <t>-0,96; 3,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 7,11</t>
+          <t>0,52; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,61</t>
+          <t>-2,7; 0,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 6,75</t>
+          <t>-0,9; 6,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 957,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 508,8</t>
+          <t>-1,46; 455,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 123,57</t>
+          <t>-10,44; 125,78</t>
         </is>
       </c>
     </row>
@@ -973,37 +973,37 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,67</t>
+          <t>6,32; 12,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 6,18</t>
+          <t>-0,77; 6,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,43</t>
+          <t>-3,35; 3,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 812,66</t>
+          <t>-58,28; 596,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>135,76; 470,26</t>
+          <t>127,67; 455,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 202,37</t>
+          <t>-16,84; 187,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 84,24</t>
+          <t>-39,47; 84,95</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,51</t>
+          <t>0,41; 8,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 13,47</t>
+          <t>3,87; 13,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,25</t>
+          <t>-0,8; 8,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,35</t>
+          <t>-2,69; 3,24</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 614,51</t>
+          <t>-5,23; 780,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,99; 1005,69</t>
+          <t>65,67; 1047,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 393,03</t>
+          <t>-21,06; 377,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 127,39</t>
+          <t>-44,19; 118,06</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,35</t>
+          <t>0,73; 4,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,39</t>
+          <t>-2,24; 5,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 8,39</t>
+          <t>0,13; 8,44</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,63</t>
+          <t>0,45; 7,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 190,91</t>
+          <t>-39,3; 186,21</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 357,79</t>
+          <t>-2,63; 328,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 161,89</t>
+          <t>2,04; 166,41</t>
         </is>
       </c>
     </row>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,74</t>
+          <t>-0,75; 4,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,49</t>
+          <t>0,99; 5,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,27 +1283,27 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,91</t>
+          <t>-2,74; 3,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 143,93</t>
+          <t>-14,49; 142,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,57; 398,03</t>
+          <t>18,36; 370,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,02; 211,75</t>
+          <t>8,3; 190,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,32; 68,18</t>
+          <t>-32,38; 69,46</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,81</t>
+          <t>-0,91; 4,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 4,35</t>
+          <t>-1,62; 4,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,67</t>
+          <t>-1,09; 2,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,78</t>
+          <t>0,18; 4,55</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 110,15</t>
+          <t>-19,92; 115,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 58,37</t>
+          <t>-15,03; 61,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 127,41</t>
+          <t>-31,02; 120,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,29; 126,02</t>
+          <t>0,33; 125,37</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,68; 2,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,94</t>
+          <t>3,55; 5,91</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,11</t>
+          <t>1,1; 3,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,12</t>
+          <t>0,82; 2,99</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,73; 94,34</t>
+          <t>18,75; 99,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>68,32; 146,09</t>
+          <t>66,14; 142,13</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,24; 105,62</t>
+          <t>26,05; 102,0</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,29; 65,27</t>
+          <t>13,49; 62,78</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,67</t>
+          <t>-2,3; 3,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 8,85</t>
+          <t>-0,59; 8,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,13; 241,13</t>
+          <t>-60,02; 233,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 230,26</t>
+          <t>-11,94; 228,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 4,7</t>
+          <t>-1,16; 4,62</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 10,03</t>
+          <t>2,76; 10,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 3,65</t>
+          <t>-0,95; 3,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,42; 149,29</t>
+          <t>-23,33; 136,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,24; 325,11</t>
+          <t>38,72; 336,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-30,57; 258,1</t>
+          <t>-31,93; 241,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 3,24</t>
+          <t>-1,12; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,92</t>
+          <t>0,32; 7,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 0,55</t>
+          <t>-2,64; 0,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,93; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 455,45</t>
+          <t>-6,02; 466,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,13</t>
+          <t>-0,66; 3,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 12,75</t>
+          <t>6,48; 12,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 6,33</t>
+          <t>-0,95; 5,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,28; 596,85</t>
+          <t>-50,51; 852,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>127,67; 455,61</t>
+          <t>135,26; 496,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,84; 187,76</t>
+          <t>-18,87; 194,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 8,37</t>
+          <t>-0,4; 7,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,87; 13,41</t>
+          <t>4,08; 13,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 8,04</t>
+          <t>-1,13; 7,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 780,06</t>
+          <t>-17,56; 610,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,67; 1047,2</t>
+          <t>45,8; 906,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 377,85</t>
+          <t>-27,1; 353,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,25</t>
+          <t>0,72; 3,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,59</t>
+          <t>-1,98; 5,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,13; 8,44</t>
+          <t>-0,25; 8,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 186,21</t>
+          <t>-33,98; 196,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 328,69</t>
+          <t>-12,07; 328,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,63</t>
+          <t>-0,6; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 5,44</t>
+          <t>0,96; 5,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,0</t>
+          <t>0,42; 5,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 142,39</t>
+          <t>-13,06; 143,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>18,36; 370,01</t>
+          <t>21,22; 362,98</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,3; 190,81</t>
+          <t>2,78; 192,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 4,13</t>
+          <t>-0,73; 3,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 4,48</t>
+          <t>-1,72; 4,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 2,55</t>
+          <t>-1,16; 2,75</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-19,92; 115,75</t>
+          <t>-14,32; 112,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 61,08</t>
+          <t>-17,48; 59,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 120,98</t>
+          <t>-32,18; 129,7</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,77</t>
+          <t>0,74; 2,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,91</t>
+          <t>3,4; 5,9</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,14</t>
+          <t>1,11; 3,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>18,75; 99,32</t>
+          <t>19,0; 90,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>66,14; 142,13</t>
+          <t>63,8; 142,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,05; 102,0</t>
+          <t>27,89; 104,44</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 3,43</t>
+          <t>-2,84; 3,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 8,78</t>
+          <t>0,2; 9,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,05</t>
+          <t>-2,48; 0,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-60,02; 233,25</t>
+          <t>-64,62; 237,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-11,94; 228,21</t>
+          <t>-0,5; 236,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,76; 218,55</t>
+          <t>-84,53; 179,51</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 4,62</t>
+          <t>-1,02; 4,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,76; 10,1</t>
+          <t>3,0; 10,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 3,41</t>
+          <t>-0,8; 3,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,62; 6,17</t>
+          <t>0,36; 6,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 136,16</t>
+          <t>-16,89; 152,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,72; 336,15</t>
+          <t>46,16; 338,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-31,93; 241,01</t>
+          <t>-29,15; 276,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,93; 220,8</t>
+          <t>1,97; 230,94</t>
         </is>
       </c>
     </row>
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 2,93</t>
+          <t>-1,03; 3,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 7,14</t>
+          <t>0,34; 7,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,51</t>
+          <t>-2,42; 0,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 6,93</t>
+          <t>-0,7; 6,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,93; —</t>
+          <t>-70,35; 957,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 466,67</t>
+          <t>-4,18; 508,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-10,44; 125,78</t>
+          <t>-7,2; 123,57</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,41</t>
+          <t>-0,83; 3,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,48; 12,57</t>
+          <t>6,57; 12,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 5,95</t>
+          <t>-0,59; 6,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 3,45</t>
+          <t>-3,37; 3,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,51; 852,64</t>
+          <t>-56,57; 812,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>135,26; 496,36</t>
+          <t>135,76; 470,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,87; 194,31</t>
+          <t>-12,92; 202,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,47; 84,95</t>
+          <t>-38,85; 84,24</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 7,85</t>
+          <t>0,28; 8,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,08; 13,62</t>
+          <t>3,41; 13,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 7,6</t>
+          <t>-0,44; 8,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,24</t>
+          <t>-2,53; 3,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 610,46</t>
+          <t>-8,55; 614,51</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>45,8; 906,29</t>
+          <t>46,99; 1005,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 353,35</t>
+          <t>-19,58; 393,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,19; 118,06</t>
+          <t>-41,24; 127,39</t>
         </is>
       </c>
     </row>
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,86</t>
+          <t>0,71; 4,35</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,44</t>
+          <t>-2,11; 5,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 8,81</t>
+          <t>-0,43; 8,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 7,01</t>
+          <t>0,16; 6,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-33,98; 196,23</t>
+          <t>-36,49; 190,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 328,7</t>
+          <t>-13,33; 357,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,04; 166,41</t>
+          <t>-2,88; 161,89</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,85</t>
+          <t>-0,68; 4,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,23</t>
+          <t>0,94; 5,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 5,9</t>
+          <t>0,64; 6,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,85</t>
+          <t>-2,75; 3,91</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,06; 143,63</t>
+          <t>-13,68; 143,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,22; 362,98</t>
+          <t>22,57; 398,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 192,89</t>
+          <t>12,02; 211,75</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,38; 69,46</t>
+          <t>-32,32; 68,18</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 3,9</t>
+          <t>-0,79; 3,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 4,53</t>
+          <t>-2,05; 4,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,75</t>
+          <t>-1,0; 2,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,18; 4,55</t>
+          <t>0,33; 4,78</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,32; 112,86</t>
+          <t>-16,08; 110,15</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 59,76</t>
+          <t>-19,61; 58,37</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 129,7</t>
+          <t>-28,66; 127,41</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 125,37</t>
+          <t>5,29; 126,02</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,56</t>
+          <t>0,58; 2,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,9</t>
+          <t>3,53; 5,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,11; 3,16</t>
+          <t>1,05; 3,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,99</t>
+          <t>0,85; 3,12</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,0; 90,79</t>
+          <t>15,73; 94,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>63,8; 142,82</t>
+          <t>68,32; 146,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,89; 104,44</t>
+          <t>26,24; 105,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,49; 62,78</t>
+          <t>14,29; 65,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,47</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>258,11%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-29,55%</t>
+          <t>-27,14%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,76; 18,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 0,96</t>
+          <t>-2,45; 1,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>108,71; 546,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-84,53; 179,51</t>
+          <t>-84,58; 196,08</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,49%</t>
+          <t>81,67%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,23</t>
+          <t>0,41; 6,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,97; 230,94</t>
+          <t>2,2; 239,96</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,84%</t>
+          <t>43,39%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 6,75</t>
+          <t>-0,59; 6,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 123,57</t>
+          <t>-6,28; 125,43</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,43</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>255,9%</t>
+          <t>262,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>-12,47%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,67</t>
+          <t>3,68; 10,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 3,43</t>
+          <t>-5,4; 2,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>135,76; 470,26</t>
+          <t>83,16; 753,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 84,24</t>
+          <t>-55,65; 50,06</t>
         </is>
       </c>
     </row>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,94%</t>
+          <t>12,76%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 3,35</t>
+          <t>-2,55; 3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 127,39</t>
+          <t>-41,93; 124,32</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>62,89%</t>
+          <t>66,08%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,63</t>
+          <t>0,46; 6,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 161,89</t>
+          <t>-1,0; 167,06</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,86%</t>
+          <t>4,98%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,91</t>
+          <t>-4,45; 3,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-32,32; 68,18</t>
+          <t>-55,34; 57,48</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>92,96%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,78</t>
+          <t>1,22; 6,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,29; 126,02</t>
+          <t>20,92; 338,52</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>37,55%</t>
+          <t>40,6%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,12</t>
+          <t>0,56; 3,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,29; 65,27</t>
+          <t>11,22; 83,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P13_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,59</t>
+          <t>-2,44; 3,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 18,57</t>
+          <t>8,13; 18,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 9,13</t>
+          <t>0,11; 9,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,01</t>
+          <t>-2,29; 1,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-64,62; 237,69</t>
+          <t>-62,36; 250,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>108,71; 546,64</t>
+          <t>112,69; 510,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 236,82</t>
+          <t>-2,97; 242,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-84,58; 196,08</t>
+          <t>-84,49; 266,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,88</t>
+          <t>-0,99; 4,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 10,12</t>
+          <t>2,66; 10,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 3,67</t>
+          <t>-1,06; 3,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 6,22</t>
+          <t>0,13; 6,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,89; 152,91</t>
+          <t>-21,65; 151,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>46,16; 338,34</t>
+          <t>38,4; 331,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 276,09</t>
+          <t>-39,32; 215,57</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 239,96</t>
+          <t>-0,6; 226,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 3,06</t>
+          <t>-1,07; 3,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 7,11</t>
+          <t>0,33; 7,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 0,61</t>
+          <t>-2,54; 0,63</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 6,7</t>
+          <t>-0,84; 6,7</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-70,35; 957,45</t>
+          <t>-76,26; 1136,2</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 508,8</t>
+          <t>-6,54; 445,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 125,43</t>
+          <t>-8,91; 124,66</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 3,13</t>
+          <t>-0,87; 3,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 10,12</t>
+          <t>3,14; 9,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 6,18</t>
+          <t>-0,77; 6,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 2,22</t>
+          <t>-4,89; 2,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,57; 812,66</t>
+          <t>-54,31; 655,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,16; 753,48</t>
+          <t>68,49; 740,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 202,37</t>
+          <t>-14,18; 214,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 50,06</t>
+          <t>-55,07; 56,6</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,28; 8,51</t>
+          <t>0,46; 8,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,41; 13,47</t>
+          <t>3,57; 13,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 8,25</t>
+          <t>-0,41; 7,85</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 3,34</t>
+          <t>-2,57; 3,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 614,51</t>
+          <t>-6,73; 702,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>46,99; 1005,69</t>
+          <t>55,9; 985,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 393,03</t>
+          <t>-14,33; 417,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 124,32</t>
+          <t>-40,46; 109,29</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,22 +1168,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,35</t>
+          <t>0,74; 4,23</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,39</t>
+          <t>-2,07; 5,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 8,39</t>
+          <t>-0,39; 8,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,46; 6,77</t>
+          <t>0,04; 6,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,24 +1193,24 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 190,91</t>
+          <t>-35,8; 199,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 357,79</t>
+          <t>-11,2; 319,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 167,06</t>
+          <t>-1,9; 160,96</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 4,74</t>
+          <t>-0,68; 4,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,49</t>
+          <t>1,01; 5,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,64; 6,0</t>
+          <t>0,41; 5,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 3,35</t>
+          <t>-4,96; 3,32</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 143,93</t>
+          <t>-12,7; 136,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,57; 398,03</t>
+          <t>19,9; 382,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,02; 211,75</t>
+          <t>4,94; 193,41</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-55,34; 57,48</t>
+          <t>-55,65; 56,21</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,81</t>
+          <t>-0,91; 3,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 4,35</t>
+          <t>-1,71; 4,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,67</t>
+          <t>-1,06; 2,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,22; 6,75</t>
+          <t>1,33; 6,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 110,15</t>
+          <t>-18,21; 104,42</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 58,37</t>
+          <t>-16,13; 60,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 127,41</t>
+          <t>-31,18; 131,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>20,92; 338,52</t>
+          <t>22,32; 353,99</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,54</t>
+          <t>0,56; 2,56</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,53; 5,94</t>
+          <t>3,29; 5,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,05; 3,11</t>
+          <t>0,98; 3,12</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,36</t>
+          <t>0,61; 3,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,73; 94,34</t>
+          <t>15,35; 93,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>68,32; 146,09</t>
+          <t>65,16; 146,34</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>26,24; 105,62</t>
+          <t>26,09; 103,33</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>11,22; 83,81</t>
+          <t>12,92; 83,86</t>
         </is>
       </c>
     </row>
